--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,27 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>Tiene un Error en BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se  Puede Probrar </t>
+  </si>
+  <si>
+    <t>No se Implemento</t>
+  </si>
+  <si>
+    <t>Debe ser Constante y no Variable</t>
+  </si>
+  <si>
+    <t>No Existe Ge Digits</t>
+  </si>
+  <si>
+    <t>No se Limpio</t>
+  </si>
+  <si>
+    <t>No Hay Controlador</t>
   </si>
 </sst>
 </file>
@@ -633,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +667,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +696,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,20 +718,26 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -740,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +778,15 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +812,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -812,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -827,17 +854,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +897,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -930,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +969,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -961,12 +988,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -977,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -988,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1009,8 +1036,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1020,8 +1050,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1032,12 +1065,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1078,21 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1061,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1072,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1083,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1094,10 +1133,10 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1105,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1159,18 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1136,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1147,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1169,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1233,10 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1202,15 +1244,15 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1229,15 +1271,15 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1245,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1256,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1267,10 +1309,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1327,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>No tiene el Mensaje de Requerido</t>
+  </si>
+  <si>
+    <t>La Clase y los metodos Deben ser Static</t>
+  </si>
+  <si>
+    <t>Falta Constante</t>
+  </si>
+  <si>
+    <t>Falta esta Mejora</t>
+  </si>
+  <si>
+    <t>Implemento Logica de Validacion de Errores y retorno Correcto de Status Code</t>
+  </si>
+  <si>
+    <t>Pero la de GetReportedCard, Le falto el Return al NotFound()</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -315,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -348,6 +372,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +671,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -678,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -700,17 +725,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -721,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -732,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -743,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -754,12 +779,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -770,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -782,15 +807,15 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <f>SUM(D15:D16)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -809,10 +834,13 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -827,17 +855,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +898,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -930,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +970,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -958,15 +986,18 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -977,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -988,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1007,10 +1038,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1052,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1032,12 +1069,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1082,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1123,12 +1163,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1194,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1205,12 +1245,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1232,12 +1272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1270,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1322,24 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,36 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>Models No esta organizado</t>
+  </si>
+  <si>
+    <t>3 Errores y 1 Warning</t>
+  </si>
+  <si>
+    <t>NO se puede Probar</t>
+  </si>
+  <si>
+    <t>Los Valores Min y Max son 13 y 19 respectivamente</t>
+  </si>
+  <si>
+    <t>Solo deberia ser MOD 10</t>
+  </si>
+  <si>
+    <t>No existe Constante</t>
+  </si>
+  <si>
+    <t>No existe la Mejora</t>
+  </si>
+  <si>
+    <t>Se estan asignando valores a un DA como una entidad</t>
+  </si>
+  <si>
+    <t>No Existe Controlador</t>
+  </si>
+  <si>
+    <t>El Tipo de Proyecto esta Errado</t>
   </si>
 </sst>
 </file>
@@ -633,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +676,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +705,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -686,10 +716,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,20 +730,26 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -740,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +790,15 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +824,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -812,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -827,17 +866,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +909,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -930,7 +969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +981,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -961,12 +1000,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,10 +1013,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -985,10 +1027,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -996,10 +1041,13 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1009,8 +1057,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1069,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1029,15 +1083,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1102,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1105,10 +1165,13 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1183,18 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1136,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1147,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1169,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1257,10 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1202,15 +1268,18 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1218,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1229,15 +1298,15 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1245,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1256,10 +1325,10 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1270,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="21" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1351,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,45 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>18 Errores</t>
+  </si>
+  <si>
+    <t>NO se puede Probar</t>
+  </si>
+  <si>
+    <t>Falta el EntityFrameWork.Core y SQLServer</t>
+  </si>
+  <si>
+    <t>Falta Referenca al Proyecto de Models</t>
+  </si>
+  <si>
+    <t>El Mensajde Error debe referirse a la tarjeta "Credit Card Not Found"</t>
+  </si>
+  <si>
+    <t>No Existe Constante</t>
+  </si>
+  <si>
+    <t>No deberia ser Mod_10 ni 18</t>
+  </si>
+  <si>
+    <t>El Min y Max son 13 y 19 no 10 y 18</t>
+  </si>
+  <si>
+    <t>No existe la mejora</t>
+  </si>
+  <si>
+    <t>No hay Referencia del DA</t>
+  </si>
+  <si>
+    <t>Incorecta Implementacion</t>
+  </si>
+  <si>
+    <t>No hay Controlador</t>
+  </si>
+  <si>
+    <t>Incorrecto el Tipo de Proyecto</t>
   </si>
 </sst>
 </file>
@@ -633,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +685,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +714,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,20 +736,26 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -740,10 +785,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +796,15 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +812,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +830,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -812,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -824,20 +869,23 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13">
         <f>SUM(D18:D28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +918,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -927,10 +978,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +996,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -961,12 +1015,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,10 +1028,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -985,10 +1042,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -996,10 +1056,13 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1009,8 +1072,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1084,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1029,15 +1098,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1117,21 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1072,10 +1150,13 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1201,18 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1136,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1147,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1169,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1275,10 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1202,15 +1286,18 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1218,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1229,15 +1316,15 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1245,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1256,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1267,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1369,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,36 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>1 Error</t>
+  </si>
+  <si>
+    <t>No se Peude Probara por que No Compila</t>
+  </si>
+  <si>
+    <t>El Mensaje es Incorrecto para los campos</t>
+  </si>
+  <si>
+    <t>El Else es Innecesario</t>
+  </si>
+  <si>
+    <t>La Clase No esta Estatica</t>
+  </si>
+  <si>
+    <t>No Existe la Constante</t>
+  </si>
+  <si>
+    <t>Los Min y Max estan Errados (Min=18? Y Max = 15?)</t>
+  </si>
+  <si>
+    <t>No se Implemento la Mejora</t>
+  </si>
+  <si>
+    <t>No esta El Controlador</t>
+  </si>
+  <si>
+    <t>No se Limpiaron datos Innecesarios</t>
   </si>
 </sst>
 </file>
@@ -633,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +676,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +705,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,20 +727,26 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -740,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +787,15 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +821,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -811,8 +847,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -824,20 +863,20 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13">
         <f>SUM(D18:D28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +909,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -927,10 +966,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +984,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -958,15 +1000,18 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,10 +1019,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -985,10 +1033,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -996,10 +1047,13 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1007,10 +1061,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1075,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1029,15 +1089,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1108,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1186,18 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1136,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1147,10 +1216,10 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1169,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1202,15 +1271,15 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1218,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1229,15 +1298,15 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1245,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1256,10 +1325,10 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1267,10 +1336,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1354,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>No esta el API como Proyecto por defecto</t>
+  </si>
+  <si>
+    <t>Mejora Sugerida No Implementada</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +652,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -678,7 +684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -700,17 +706,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -721,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -732,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -743,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -754,12 +763,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -770,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +794,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -812,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -827,17 +836,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +879,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -930,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +951,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -961,12 +970,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -977,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -988,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1032,12 +1041,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1054,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1123,12 +1135,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1205,12 +1217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1232,12 +1244,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="21" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1294,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,45 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>17 Warnings</t>
+  </si>
+  <si>
+    <t>El Proyecto por defecto No es el API</t>
+  </si>
+  <si>
+    <t>No Funciona el Admin</t>
+  </si>
+  <si>
+    <t>No Consulta</t>
+  </si>
+  <si>
+    <t>El Metodo deberia ser FirstOrDefault y no un Where.ToList</t>
+  </si>
+  <si>
+    <t>Falla La Ejecucion</t>
+  </si>
+  <si>
+    <t>La Condicion esta Invertida, ISNull =&gt; Credit Card Not Found</t>
+  </si>
+  <si>
+    <t>Incorecto el Nombre del parametro y la ruta</t>
+  </si>
+  <si>
+    <t>Falla la ejecucion</t>
+  </si>
+  <si>
+    <t>NO esta la constante</t>
+  </si>
+  <si>
+    <t>Los valores estan errados</t>
+  </si>
+  <si>
+    <t>No esta Implementada la Mejora</t>
+  </si>
+  <si>
+    <t>Retorna solo un elemento no una Lista</t>
   </si>
 </sst>
 </file>
@@ -633,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +685,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +714,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,20 +736,26 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -720,8 +765,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -732,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -740,10 +788,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +802,18 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +821,13 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +842,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -812,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -824,20 +881,20 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13">
         <f>SUM(D18:D28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +927,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -916,10 +973,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -927,10 +987,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +1005,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -961,12 +1024,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,10 +1037,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -988,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1007,10 +1073,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1087,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1029,15 +1101,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1120,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1094,10 +1172,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1201,15 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1261,13 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1275,13 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1202,15 +1289,18 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1232,12 +1322,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1270,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="21" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1372,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,39 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>El Proyecto por defecto no es la API</t>
+  </si>
+  <si>
+    <t>Existen Datos Innecesarios (WeatherController)</t>
+  </si>
+  <si>
+    <t>Uso Incorecto de parametro y Ruta (Doble issuingNetwork)</t>
+  </si>
+  <si>
+    <t>Falla la Ejecucion</t>
+  </si>
+  <si>
+    <t>El Metodo de consulta deberia ser FirstOrDefault yno Were.ToList</t>
+  </si>
+  <si>
+    <t>La Clase debe ser Estatica</t>
+  </si>
+  <si>
+    <t>Min y Max Incorrectos</t>
+  </si>
+  <si>
+    <t>No esta la Constante</t>
+  </si>
+  <si>
+    <t>No se Implemento la Mejora Sugerida</t>
+  </si>
+  <si>
+    <t>No Debe Retornar una Lista</t>
+  </si>
+  <si>
+    <t>Nombre del parametro y la ruta diferentes (CamelCase)</t>
   </si>
 </sst>
 </file>
@@ -633,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +679,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +708,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -700,17 +733,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -721,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,10 +765,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -743,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -754,12 +793,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +806,13 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +827,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -812,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -824,20 +866,20 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13">
         <f>SUM(D18:D28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +912,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -916,10 +958,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -930,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +987,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -958,15 +1003,18 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,10 +1022,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -988,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1007,10 +1058,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1072,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1029,15 +1086,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1105,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1094,10 +1157,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1186,15 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1257,13 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1205,12 +1274,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1232,12 +1301,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1267,10 +1336,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1354,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
